--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,112 +40,91 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
+    <t>crude</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>warning</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>recession</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>risk</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>corona</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>thanks</t>
@@ -154,145 +133,151 @@
     <t>positive</t>
   </si>
   <si>
-    <t>great</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>gt</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>customers</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>store</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>workers</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>supermarket</t>
   </si>
   <si>
     <t>san</t>
   </si>
   <si>
-    <t>19</t>
+    <t>food</t>
   </si>
   <si>
     <t>prices</t>
@@ -653,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -661,10 +646,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -722,13 +707,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -740,19 +725,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="K3">
-        <v>0.96875</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -764,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -772,13 +757,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -790,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -814,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -822,13 +807,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -840,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -864,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -872,13 +857,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -890,19 +875,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -914,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -922,13 +907,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.88</v>
+        <v>0.636986301369863</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -940,10 +925,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K7">
         <v>0.8518518518518519</v>
@@ -972,13 +957,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.875</v>
+        <v>0.6</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -990,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K8">
-        <v>0.8431372549019608</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1014,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1022,13 +1007,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8235294117647058</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1040,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K9">
-        <v>0.8392857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1064,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1072,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7337662337662337</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C10">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1090,19 +1075,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K10">
-        <v>0.7962962962962963</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L10">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="M10">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1114,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1122,13 +1107,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7272727272727273</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1140,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K11">
-        <v>0.7931034482758621</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L11">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1164,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1172,13 +1157,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1190,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K12">
-        <v>0.7843137254901961</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1214,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1222,13 +1207,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6666666666666666</v>
+        <v>0.32</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1240,31 +1225,31 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>51</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="L13">
+        <v>17</v>
+      </c>
+      <c r="M13">
+        <v>17</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>5</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L13">
-        <v>13</v>
-      </c>
-      <c r="M13">
-        <v>13</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1272,13 +1257,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.631578947368421</v>
+        <v>0.2810077519379845</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1290,19 +1275,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>371</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>0.76</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L14">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="M14">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1314,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1322,13 +1307,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5833333333333334</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1340,19 +1325,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>0.75</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="M15">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1364,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1372,13 +1357,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5833333333333334</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1390,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>0.7</v>
+        <v>0.7421875</v>
       </c>
       <c r="L16">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="M16">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1414,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1422,13 +1407,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5625</v>
+        <v>0.2275132275132275</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1440,19 +1425,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="K17">
-        <v>0.6923076923076923</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L17">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="M17">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1464,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1472,13 +1457,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5294117647058824</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1490,19 +1475,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K18">
-        <v>0.6923076923076923</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1514,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1522,13 +1507,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4377682403433477</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="C19">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1540,19 +1525,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>0.6923076923076923</v>
+        <v>0.7</v>
       </c>
       <c r="L19">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1564,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1572,13 +1557,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4375</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1590,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>9</v>
+        <v>212</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>0.6896551724137931</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1614,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1622,13 +1607,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4285714285714285</v>
+        <v>0.05361930294906166</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1640,19 +1625,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>353</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K21">
-        <v>0.6875</v>
+        <v>0.65625</v>
       </c>
       <c r="L21">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="M21">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1664,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1672,37 +1657,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4285714285714285</v>
+        <v>0.004781638508128785</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>3122</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>0.68</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1714,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1722,951 +1707,687 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3793103448275862</v>
+        <v>0.004623513870541612</v>
       </c>
       <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>93</v>
+      </c>
+      <c r="E23">
+        <v>0.85</v>
+      </c>
+      <c r="F23">
+        <v>0.15</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>3014</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="L23">
+        <v>56</v>
+      </c>
+      <c r="M23">
+        <v>56</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="L24">
+        <v>16</v>
+      </c>
+      <c r="M24">
+        <v>16</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>11</v>
       </c>
-      <c r="D23">
-        <v>11</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>18</v>
-      </c>
-      <c r="J23" s="1" t="s">
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25">
+        <v>0.5848563968668408</v>
+      </c>
+      <c r="L25">
+        <v>224</v>
+      </c>
+      <c r="M25">
+        <v>224</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26">
+        <v>0.5777777777777777</v>
+      </c>
+      <c r="L26">
+        <v>26</v>
+      </c>
+      <c r="M26">
+        <v>26</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27">
+        <v>0.5588235294117647</v>
+      </c>
+      <c r="L27">
+        <v>19</v>
+      </c>
+      <c r="M27">
+        <v>19</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K28">
+        <v>0.550561797752809</v>
+      </c>
+      <c r="L28">
+        <v>49</v>
+      </c>
+      <c r="M28">
+        <v>49</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="L29">
+        <v>26</v>
+      </c>
+      <c r="M29">
+        <v>26</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30">
+        <v>0.5264705882352941</v>
+      </c>
+      <c r="L30">
+        <v>179</v>
+      </c>
+      <c r="M30">
+        <v>179</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K31">
+        <v>0.4813559322033898</v>
+      </c>
+      <c r="L31">
+        <v>142</v>
+      </c>
+      <c r="M31">
+        <v>142</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K32">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="L32">
+        <v>30</v>
+      </c>
+      <c r="M32">
+        <v>30</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33">
+        <v>0.4435146443514644</v>
+      </c>
+      <c r="L33">
+        <v>106</v>
+      </c>
+      <c r="M33">
+        <v>106</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K23">
-        <v>0.6575342465753424</v>
-      </c>
-      <c r="L23">
-        <v>48</v>
-      </c>
-      <c r="M23">
-        <v>48</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
+      <c r="K34">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="L34">
+        <v>32</v>
+      </c>
+      <c r="M34">
+        <v>32</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K35">
+        <v>0.3972602739726027</v>
+      </c>
+      <c r="L35">
+        <v>29</v>
+      </c>
+      <c r="M35">
+        <v>29</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36">
+        <v>0.390625</v>
+      </c>
+      <c r="L36">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.35</v>
-      </c>
-      <c r="C24">
+      <c r="M36">
+        <v>25</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K37">
+        <v>0.3488372093023256</v>
+      </c>
+      <c r="L37">
+        <v>15</v>
+      </c>
+      <c r="M37">
+        <v>15</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>28</v>
       </c>
-      <c r="D24">
-        <v>28</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>52</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K24">
-        <v>0.6538461538461539</v>
-      </c>
-      <c r="L24">
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K38">
+        <v>0.325</v>
+      </c>
+      <c r="L38">
+        <v>13</v>
+      </c>
+      <c r="M38">
+        <v>13</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K39">
+        <v>0.325</v>
+      </c>
+      <c r="L39">
+        <v>13</v>
+      </c>
+      <c r="M39">
+        <v>13</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K40">
+        <v>0.2714285714285714</v>
+      </c>
+      <c r="L40">
+        <v>19</v>
+      </c>
+      <c r="M40">
+        <v>19</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K41">
+        <v>0.2622950819672131</v>
+      </c>
+      <c r="L41">
+        <v>16</v>
+      </c>
+      <c r="M41">
+        <v>16</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K42">
+        <v>0.134020618556701</v>
+      </c>
+      <c r="L42">
+        <v>13</v>
+      </c>
+      <c r="M42">
+        <v>13</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K43">
+        <v>0.1156462585034014</v>
+      </c>
+      <c r="L43">
         <v>17</v>
       </c>
-      <c r="M24">
+      <c r="M43">
         <v>17</v>
       </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.35</v>
-      </c>
-      <c r="C25">
-        <v>7</v>
-      </c>
-      <c r="D25">
-        <v>7</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K44">
+        <v>0.1023622047244094</v>
+      </c>
+      <c r="L44">
         <v>13</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K25">
-        <v>0.64</v>
-      </c>
-      <c r="L25">
+      <c r="M44">
+        <v>13</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K45">
+        <v>0.09923664122137404</v>
+      </c>
+      <c r="L45">
+        <v>13</v>
+      </c>
+      <c r="M45">
+        <v>13</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K46">
+        <v>0.09815950920245399</v>
+      </c>
+      <c r="L46">
         <v>16</v>
       </c>
-      <c r="M25">
+      <c r="M46">
         <v>16</v>
       </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C26">
-        <v>9</v>
-      </c>
-      <c r="D26">
-        <v>9</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>18</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K26">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L26">
-        <v>21</v>
-      </c>
-      <c r="M26">
-        <v>21</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.2631578947368421</v>
-      </c>
-      <c r="C27">
-        <v>10</v>
-      </c>
-      <c r="D27">
-        <v>10</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>28</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K27">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L27">
-        <v>7</v>
-      </c>
-      <c r="M27">
-        <v>7</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.2441860465116279</v>
-      </c>
-      <c r="C28">
-        <v>21</v>
-      </c>
-      <c r="D28">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>65</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K28">
-        <v>0.6103286384976526</v>
-      </c>
-      <c r="L28">
-        <v>130</v>
-      </c>
-      <c r="M28">
-        <v>130</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.225</v>
-      </c>
-      <c r="C29">
-        <v>9</v>
-      </c>
-      <c r="D29">
-        <v>9</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>31</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K29">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="L29">
-        <v>10</v>
-      </c>
-      <c r="M29">
-        <v>10</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.2173913043478261</v>
-      </c>
-      <c r="C30">
-        <v>10</v>
-      </c>
-      <c r="D30">
-        <v>10</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>36</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K30">
-        <v>0.5789473684210527</v>
-      </c>
-      <c r="L30">
-        <v>11</v>
-      </c>
-      <c r="M30">
-        <v>11</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.2</v>
-      </c>
-      <c r="C31">
-        <v>22</v>
-      </c>
-      <c r="D31">
-        <v>22</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>88</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K31">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L31">
-        <v>8</v>
-      </c>
-      <c r="M31">
-        <v>8</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.1135135135135135</v>
-      </c>
-      <c r="C32">
-        <v>21</v>
-      </c>
-      <c r="D32">
-        <v>22</v>
-      </c>
-      <c r="E32">
-        <v>0.05</v>
-      </c>
-      <c r="F32">
-        <v>0.95</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>164</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K32">
-        <v>0.5694444444444444</v>
-      </c>
-      <c r="L32">
-        <v>82</v>
-      </c>
-      <c r="M32">
-        <v>82</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K47">
+        <v>0.09330143540669857</v>
+      </c>
+      <c r="L47">
+        <v>39</v>
+      </c>
+      <c r="M47">
+        <v>39</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K48">
+        <v>0.09134615384615384</v>
+      </c>
+      <c r="L48">
         <v>38</v>
       </c>
-      <c r="B33">
-        <v>0.004542504866969501</v>
-      </c>
-      <c r="C33">
-        <v>7</v>
-      </c>
-      <c r="D33">
-        <v>30</v>
-      </c>
-      <c r="E33">
-        <v>0.77</v>
-      </c>
-      <c r="F33">
-        <v>0.23</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1534</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K33">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="L33">
-        <v>17</v>
-      </c>
-      <c r="M33">
-        <v>17</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.00445859872611465</v>
-      </c>
-      <c r="C34">
-        <v>7</v>
-      </c>
-      <c r="D34">
-        <v>34</v>
-      </c>
-      <c r="E34">
-        <v>0.79</v>
-      </c>
-      <c r="F34">
-        <v>0.21</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>1563</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K34">
-        <v>0.5428571428571428</v>
-      </c>
-      <c r="L34">
-        <v>19</v>
-      </c>
-      <c r="M34">
-        <v>19</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="J35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K35">
-        <v>0.5193798449612403</v>
-      </c>
-      <c r="L35">
-        <v>67</v>
-      </c>
-      <c r="M35">
-        <v>67</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K36">
-        <v>0.5</v>
-      </c>
-      <c r="L36">
-        <v>14</v>
-      </c>
-      <c r="M36">
-        <v>14</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K37">
-        <v>0.5</v>
-      </c>
-      <c r="L37">
-        <v>11</v>
-      </c>
-      <c r="M37">
-        <v>11</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K38">
-        <v>0.4864864864864865</v>
-      </c>
-      <c r="L38">
-        <v>18</v>
-      </c>
-      <c r="M38">
-        <v>18</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K39">
-        <v>0.4565217391304348</v>
-      </c>
-      <c r="L39">
-        <v>42</v>
-      </c>
-      <c r="M39">
-        <v>42</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K40">
-        <v>0.4</v>
-      </c>
-      <c r="L40">
-        <v>8</v>
-      </c>
-      <c r="M40">
-        <v>8</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K41">
-        <v>0.35</v>
-      </c>
-      <c r="L41">
-        <v>7</v>
-      </c>
-      <c r="M41">
-        <v>7</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K42">
-        <v>0.34375</v>
-      </c>
-      <c r="L42">
-        <v>11</v>
-      </c>
-      <c r="M42">
-        <v>11</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K43">
-        <v>0.2894736842105263</v>
-      </c>
-      <c r="L43">
-        <v>11</v>
-      </c>
-      <c r="M43">
-        <v>11</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K44">
-        <v>0.2051282051282051</v>
-      </c>
-      <c r="L44">
-        <v>8</v>
-      </c>
-      <c r="M44">
-        <v>8</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K45">
-        <v>0.1842105263157895</v>
-      </c>
-      <c r="L45">
-        <v>7</v>
-      </c>
-      <c r="M45">
-        <v>7</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K46">
-        <v>0.08641975308641975</v>
-      </c>
-      <c r="L46">
-        <v>7</v>
-      </c>
-      <c r="M46">
-        <v>7</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K47">
-        <v>0.08585858585858586</v>
-      </c>
-      <c r="L47">
-        <v>17</v>
-      </c>
-      <c r="M47">
-        <v>17</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K48">
-        <v>0.06698564593301436</v>
-      </c>
-      <c r="L48">
-        <v>14</v>
-      </c>
       <c r="M48">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2678,21 +2399,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>195</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K49">
-        <v>0.06097560975609756</v>
+        <v>0.06375838926174497</v>
       </c>
       <c r="L49">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="M49">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2704,21 +2425,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>385</v>
+        <v>837</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K50">
-        <v>0.05633802816901409</v>
+        <v>0.06046511627906977</v>
       </c>
       <c r="L50">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2730,21 +2451,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>402</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K51">
-        <v>0.04761904761904762</v>
+        <v>0.06046511627906977</v>
       </c>
       <c r="L51">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M51">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2756,21 +2477,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>300</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K52">
-        <v>0.04279279279279279</v>
+        <v>0.0487012987012987</v>
       </c>
       <c r="L52">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2782,137 +2503,293 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>425</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K53">
-        <v>0.03571428571428571</v>
+        <v>0.04682274247491638</v>
       </c>
       <c r="L53">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M53">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>270</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K54">
-        <v>0.03398926654740608</v>
+        <v>0.04550499445061043</v>
       </c>
       <c r="L54">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M54">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N54">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>1080</v>
+        <v>860</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="K55">
-        <v>0.0169811320754717</v>
+        <v>0.04281345565749235</v>
       </c>
       <c r="L55">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="M55">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="N55">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>1563</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="K56">
-        <v>0.01477199743095697</v>
+        <v>0.04173106646058733</v>
       </c>
       <c r="L56">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M56">
         <v>30</v>
       </c>
       <c r="N56">
-        <v>0.77</v>
+        <v>0.9</v>
       </c>
       <c r="O56">
-        <v>0.23</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>1534</v>
+        <v>620</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K57">
+        <v>0.04076850984067479</v>
+      </c>
+      <c r="L57">
+        <v>87</v>
+      </c>
+      <c r="M57">
+        <v>96</v>
+      </c>
+      <c r="N57">
+        <v>0.91</v>
+      </c>
+      <c r="O57">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K58">
+        <v>0.03699421965317919</v>
+      </c>
+      <c r="L58">
+        <v>32</v>
+      </c>
+      <c r="M58">
+        <v>34</v>
+      </c>
+      <c r="N58">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O58">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K59">
+        <v>0.02880658436213992</v>
+      </c>
+      <c r="L59">
+        <v>14</v>
+      </c>
+      <c r="M59">
+        <v>14</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K60">
+        <v>0.02554154542515357</v>
+      </c>
+      <c r="L60">
+        <v>79</v>
+      </c>
+      <c r="M60">
         <v>93</v>
       </c>
-      <c r="K57">
-        <v>0.01313628899835796</v>
-      </c>
-      <c r="L57">
-        <v>8</v>
-      </c>
-      <c r="M57">
-        <v>12</v>
-      </c>
-      <c r="N57">
-        <v>0.67</v>
-      </c>
-      <c r="O57">
-        <v>0.33</v>
-      </c>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>601</v>
+      <c r="N60">
+        <v>0.85</v>
+      </c>
+      <c r="O60">
+        <v>0.15</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K61">
+        <v>0.02008788449466416</v>
+      </c>
+      <c r="L61">
+        <v>64</v>
+      </c>
+      <c r="M61">
+        <v>79</v>
+      </c>
+      <c r="N61">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O61">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K62">
+        <v>0.01863354037267081</v>
+      </c>
+      <c r="L62">
+        <v>18</v>
+      </c>
+      <c r="M62">
+        <v>20</v>
+      </c>
+      <c r="N62">
+        <v>0.9</v>
+      </c>
+      <c r="O62">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K63">
+        <v>0.01815038893690579</v>
+      </c>
+      <c r="L63">
+        <v>21</v>
+      </c>
+      <c r="M63">
+        <v>25</v>
+      </c>
+      <c r="N63">
+        <v>0.84</v>
+      </c>
+      <c r="O63">
+        <v>0.16</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>1136</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,187 +46,196 @@
     <t>arrested</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>empty</t>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>risk</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>strong</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>love</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>great</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>credit</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>increase</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>giving</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>energy</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>today</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>customers</t>
   </si>
   <si>
     <t>essential</t>
@@ -241,40 +250,40 @@
     <t>online</t>
   </si>
   <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
     <t>home</t>
   </si>
   <si>
-    <t>new</t>
+    <t>social</t>
   </si>
   <si>
     <t>stay</t>
   </si>
   <si>
-    <t>workers</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>stock</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
     <t>consumer</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>san</t>
   </si>
   <si>
     <t>food</t>
@@ -638,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,10 +655,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -707,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -725,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -749,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -778,16 +787,16 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -799,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -807,13 +816,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6666666666666666</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -825,19 +834,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -849,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -857,49 +866,49 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6538461538461539</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6">
+        <v>0.8482142857142857</v>
+      </c>
+      <c r="L6">
+        <v>95</v>
+      </c>
+      <c r="M6">
+        <v>95</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>17</v>
-      </c>
-      <c r="D6">
-        <v>17</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>9</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6">
-        <v>0.8695652173913043</v>
-      </c>
-      <c r="L6">
-        <v>40</v>
-      </c>
-      <c r="M6">
-        <v>40</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -907,13 +916,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.636986301369863</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="C7">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D7">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -925,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7">
-        <v>0.8518518518518519</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -949,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -957,13 +966,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -975,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K8">
-        <v>0.8482142857142857</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L8">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="M8">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -999,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1007,13 +1016,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5862068965517241</v>
+        <v>0.6</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1025,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.7734375</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1049,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1057,13 +1066,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4838709677419355</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1075,19 +1084,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.8292682926829268</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L10">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="M10">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1099,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1107,13 +1116,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3846153846153846</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1125,19 +1134,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1149,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1157,7 +1166,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3421052631578947</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C12">
         <v>13</v>
@@ -1175,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="L12">
         <v>39</v>
       </c>
-      <c r="K12">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L12">
-        <v>28</v>
-      </c>
       <c r="M12">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1199,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1207,13 +1216,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.32</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1225,19 +1234,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.7727272727272727</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L13">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="M13">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1249,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1257,13 +1266,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2810077519379845</v>
+        <v>0.2945736434108527</v>
       </c>
       <c r="C14">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D14">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1275,19 +1284,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.7583333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1299,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1307,13 +1316,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2727272727272727</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1325,19 +1334,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.7535211267605634</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L15">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="M15">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1357,13 +1366,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2549019607843137</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1375,19 +1384,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>0.7421875</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L16">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="M16">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1399,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1407,13 +1416,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2275132275132275</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="C17">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1425,19 +1434,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>0.7169811320754716</v>
+        <v>0.6875</v>
       </c>
       <c r="L17">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="M17">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1449,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1457,13 +1466,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1888888888888889</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1475,19 +1484,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.7058823529411765</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1507,13 +1516,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1879194630872483</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1525,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>0.7</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1549,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1557,13 +1566,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1587301587301587</v>
+        <v>0.175</v>
       </c>
       <c r="C20">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1575,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>212</v>
+        <v>66</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>0.6808510638297872</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1599,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1607,13 +1616,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.05361930294906166</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1625,19 +1634,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>353</v>
+        <v>220</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>0.65625</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L21">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1649,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1657,37 +1666,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.004781638508128785</v>
+        <v>0.06970509383378017</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="E22">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.1899999999999999</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>3122</v>
+        <v>347</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>0.6349206349206349</v>
+        <v>0.625</v>
       </c>
       <c r="L22">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1699,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1707,37 +1716,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.004623513870541612</v>
+        <v>0.005599472990777339</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E23">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F23">
-        <v>0.15</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>3014</v>
+        <v>3019</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>0.5957446808510638</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L23">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1749,12 +1758,36 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.005080978088281994</v>
+      </c>
+      <c r="C24">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>68</v>
+      </c>
+      <c r="E24">
+        <v>0.76</v>
+      </c>
+      <c r="F24">
+        <v>0.24</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>3133</v>
+      </c>
       <c r="J24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K24">
         <v>0.5925925925925926</v>
@@ -1780,16 +1813,16 @@
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K25">
-        <v>0.5848563968668408</v>
+        <v>0.587467362924282</v>
       </c>
       <c r="L25">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M25">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1801,21 +1834,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K26">
-        <v>0.5777777777777777</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="M26">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1827,21 +1860,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K27">
-        <v>0.5588235294117647</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1853,21 +1886,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K28">
-        <v>0.550561797752809</v>
+        <v>0.54</v>
       </c>
       <c r="L28">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1879,21 +1912,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K29">
-        <v>0.5416666666666666</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1905,21 +1938,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K30">
-        <v>0.5264705882352941</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="L30">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="M30">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1931,21 +1964,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>161</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K31">
-        <v>0.4813559322033898</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="L31">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="M31">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1957,21 +1990,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K32">
-        <v>0.4615384615384616</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="L32">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="M32">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1983,21 +2016,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K33">
-        <v>0.4435146443514644</v>
+        <v>0.5</v>
       </c>
       <c r="L33">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="M33">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2009,21 +2042,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>133</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K34">
-        <v>0.4102564102564102</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M34">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2035,15 +2068,15 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K35">
-        <v>0.3972602739726027</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L35">
         <v>29</v>
@@ -2061,21 +2094,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K36">
-        <v>0.390625</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2087,21 +2120,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K37">
-        <v>0.3488372093023256</v>
+        <v>0.4351464435146444</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2113,15 +2146,15 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>28</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K38">
-        <v>0.325</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L38">
         <v>13</v>
@@ -2139,21 +2172,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K39">
-        <v>0.325</v>
+        <v>0.390625</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2165,21 +2198,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K40">
-        <v>0.2714285714285714</v>
+        <v>0.35</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2191,21 +2224,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K41">
-        <v>0.2622950819672131</v>
+        <v>0.3285714285714286</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2217,15 +2250,15 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K42">
-        <v>0.134020618556701</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="L42">
         <v>13</v>
@@ -2243,21 +2276,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>84</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K43">
-        <v>0.1156462585034014</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L43">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2269,47 +2302,47 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>130</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K44">
-        <v>0.1023622047244094</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>114</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K45">
-        <v>0.09923664122137404</v>
+        <v>0.1386138613861386</v>
       </c>
       <c r="L45">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M45">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2321,15 +2354,15 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>118</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K46">
-        <v>0.09815950920245399</v>
+        <v>0.1259842519685039</v>
       </c>
       <c r="L46">
         <v>16</v>
@@ -2347,21 +2380,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>147</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K47">
-        <v>0.09330143540669857</v>
+        <v>0.1221374045801527</v>
       </c>
       <c r="L47">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M47">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2373,21 +2406,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>379</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K48">
-        <v>0.09134615384615384</v>
+        <v>0.09202453987730061</v>
       </c>
       <c r="L48">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2399,21 +2432,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>378</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K49">
-        <v>0.06375838926174497</v>
+        <v>0.08133971291866028</v>
       </c>
       <c r="L49">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="M49">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2425,73 +2458,73 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>837</v>
+        <v>384</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K50">
-        <v>0.06046511627906977</v>
+        <v>0.07054871220604703</v>
       </c>
       <c r="L50">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M50">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>202</v>
+        <v>830</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K51">
-        <v>0.06046511627906977</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M51">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K52">
-        <v>0.0487012987012987</v>
+        <v>0.06971153846153846</v>
       </c>
       <c r="L52">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M52">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2503,47 +2536,47 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>293</v>
+        <v>387</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K53">
-        <v>0.04682274247491638</v>
+        <v>0.06511627906976744</v>
       </c>
       <c r="L53">
         <v>14</v>
       </c>
       <c r="M53">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N53">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>285</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K54">
-        <v>0.04550499445061043</v>
+        <v>0.05652173913043478</v>
       </c>
       <c r="L54">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M54">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2555,241 +2588,293 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>860</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K55">
-        <v>0.04281345565749235</v>
+        <v>0.0488599348534202</v>
       </c>
       <c r="L55">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M55">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K56">
-        <v>0.04173106646058733</v>
+        <v>0.04777777777777778</v>
       </c>
       <c r="L56">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="M56">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N56">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="O56">
-        <v>0.09999999999999998</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>620</v>
+        <v>857</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K57">
-        <v>0.04076850984067479</v>
+        <v>0.0461361014994233</v>
       </c>
       <c r="L57">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="M57">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="N57">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>2047</v>
+        <v>827</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K58">
-        <v>0.03699421965317919</v>
+        <v>0.04294478527607362</v>
       </c>
       <c r="L58">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="M58">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N58">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O58">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>833</v>
+        <v>312</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K59">
-        <v>0.02880658436213992</v>
+        <v>0.03750586029067042</v>
       </c>
       <c r="L59">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="M59">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>472</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="K60">
-        <v>0.02554154542515357</v>
+        <v>0.03497942386831276</v>
       </c>
       <c r="L60">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="M60">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="N60">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>3014</v>
+        <v>469</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="K61">
-        <v>0.02008788449466416</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="L61">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="M61">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="N61">
-        <v>0.8100000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="O61">
-        <v>0.1899999999999999</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>3122</v>
+        <v>627</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="K62">
-        <v>0.01863354037267081</v>
+        <v>0.02297734627831715</v>
       </c>
       <c r="L62">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="M62">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="N62">
-        <v>0.9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O62">
-        <v>0.09999999999999998</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>948</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K63">
-        <v>0.01815038893690579</v>
+        <v>0.02068252326783868</v>
       </c>
       <c r="L63">
+        <v>20</v>
+      </c>
+      <c r="M63">
         <v>21</v>
       </c>
-      <c r="M63">
-        <v>25</v>
-      </c>
       <c r="N63">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="O63">
-        <v>0.16</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>1136</v>
+        <v>947</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K64">
+        <v>0.0163265306122449</v>
+      </c>
+      <c r="L64">
+        <v>52</v>
+      </c>
+      <c r="M64">
+        <v>68</v>
+      </c>
+      <c r="N64">
+        <v>0.76</v>
+      </c>
+      <c r="O64">
+        <v>0.24</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K65">
+        <v>0.01466781708369284</v>
+      </c>
+      <c r="L65">
+        <v>17</v>
+      </c>
+      <c r="M65">
+        <v>19</v>
+      </c>
+      <c r="N65">
+        <v>0.89</v>
+      </c>
+      <c r="O65">
+        <v>0.11</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>1142</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="95">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,58 +40,58 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>kill</t>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>shortage</t>
+    <t>low</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>fight</t>
+    <t>empty</t>
   </si>
   <si>
     <t>stop</t>
@@ -103,190 +103,199 @@
     <t>co</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>prices</t>
@@ -647,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -655,10 +664,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -716,13 +725,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9117647058823529</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -734,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -766,13 +775,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -784,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -808,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -816,13 +825,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7368421052631579</v>
+        <v>0.72</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -834,31 +843,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5">
+        <v>0.8913043478260869</v>
+      </c>
+      <c r="L5">
+        <v>41</v>
+      </c>
+      <c r="M5">
+        <v>41</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>5</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5">
-        <v>0.8983050847457628</v>
-      </c>
-      <c r="L5">
-        <v>53</v>
-      </c>
-      <c r="M5">
-        <v>53</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -866,13 +875,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6666666666666666</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -884,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K6">
-        <v>0.8482142857142857</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L6">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="M6">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -908,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -916,13 +925,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6575342465753424</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="C7">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D7">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -934,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7">
-        <v>0.7926829268292683</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L7">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -958,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -966,13 +975,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6538461538461539</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -984,19 +993,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K8">
-        <v>0.7758620689655172</v>
+        <v>0.84375</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1008,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1016,7 +1025,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C9">
         <v>15</v>
@@ -1034,19 +1043,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9">
-        <v>0.7734375</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="M9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1058,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1066,13 +1075,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5862068965517241</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1084,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10">
-        <v>0.7727272727272727</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L10">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="M10">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1108,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1116,13 +1125,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4210526315789473</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1134,19 +1143,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11">
-        <v>0.7692307692307693</v>
+        <v>0.8303571428571429</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1158,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1166,13 +1175,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3513513513513514</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1184,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12">
-        <v>0.7647058823529411</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L12">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M12">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1208,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1216,13 +1225,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3333333333333333</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1234,19 +1243,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>0.7535211267605634</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L13">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="M13">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1258,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1266,13 +1275,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2945736434108527</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C14">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1284,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>364</v>
+        <v>52</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L14">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1308,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1316,13 +1325,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2933333333333333</v>
+        <v>0.3003875968992248</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1334,19 +1343,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>53</v>
+        <v>361</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>0.7083333333333334</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L15">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="M15">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1358,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1366,13 +1375,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2698412698412698</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="C16">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1384,19 +1393,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>0.7037037037037037</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M16">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1408,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1416,13 +1425,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2542372881355932</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1434,19 +1443,19 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>144</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="K17">
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1458,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1466,13 +1475,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2337662337662338</v>
+        <v>0.2214765100671141</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1484,19 +1493,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K18">
-        <v>0.6808510638297872</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1508,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1516,13 +1525,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2281879194630873</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="C19">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1534,19 +1543,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>0.6792452830188679</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1558,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1566,13 +1575,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.175</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1584,19 +1593,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1608,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1616,13 +1625,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.126984126984127</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C21">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D21">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1634,19 +1643,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K21">
-        <v>0.6388888888888888</v>
+        <v>0.74</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="M21">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1666,37 +1675,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.06970509383378017</v>
+        <v>0.06989247311827956</v>
       </c>
       <c r="C22">
         <v>26</v>
       </c>
       <c r="D22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>0.625</v>
+        <v>0.7112676056338029</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1708,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1716,87 +1725,63 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005599472990777339</v>
+        <v>0.004668222740913638</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="E23">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="F23">
-        <v>0.1899999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>3019</v>
+        <v>2985</v>
       </c>
       <c r="J23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23">
+        <v>0.70625</v>
+      </c>
+      <c r="L23">
+        <v>113</v>
+      </c>
+      <c r="M23">
+        <v>113</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K23">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="L23">
-        <v>28</v>
-      </c>
-      <c r="M23">
-        <v>28</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.005080978088281994</v>
-      </c>
-      <c r="C24">
-        <v>16</v>
-      </c>
-      <c r="D24">
-        <v>68</v>
-      </c>
-      <c r="E24">
-        <v>0.76</v>
-      </c>
-      <c r="F24">
-        <v>0.24</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>3133</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="K24">
-        <v>0.5925925925925926</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1808,21 +1793,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K25">
-        <v>0.587467362924282</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L25">
-        <v>225</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>225</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1834,21 +1819,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>158</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K26">
-        <v>0.574468085106383</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L26">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="M26">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1860,21 +1845,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27">
-        <v>0.5730337078651685</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L27">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="M27">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1886,21 +1871,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K28">
-        <v>0.54</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L28">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="M28">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1912,21 +1897,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K29">
-        <v>0.5357142857142857</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1938,21 +1923,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K30">
-        <v>0.5205479452054794</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L30">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1964,21 +1949,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K31">
-        <v>0.5147058823529411</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L31">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1990,21 +1975,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>165</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K32">
-        <v>0.5084745762711864</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L32">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="M32">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2016,21 +2001,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>145</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.5509138381201044</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2042,21 +2027,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>17</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K34">
-        <v>0.4871794871794872</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L34">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2068,21 +2053,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K35">
-        <v>0.4461538461538462</v>
+        <v>0.535593220338983</v>
       </c>
       <c r="L35">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="M35">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2094,21 +2079,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>36</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K36">
-        <v>0.4418604651162791</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2120,21 +2105,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K37">
-        <v>0.4351464435146444</v>
+        <v>0.4794117647058824</v>
       </c>
       <c r="L37">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="M37">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2146,21 +2131,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>135</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K38">
-        <v>0.3939393939393939</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2172,21 +2157,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K39">
-        <v>0.390625</v>
+        <v>0.4267782426778243</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="M39">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2198,21 +2183,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>39</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K40">
-        <v>0.35</v>
+        <v>0.425</v>
       </c>
       <c r="L40">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M40">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2224,21 +2209,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K41">
-        <v>0.3285714285714286</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L41">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2250,15 +2235,15 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K42">
-        <v>0.3095238095238095</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L42">
         <v>13</v>
@@ -2276,21 +2261,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K43">
-        <v>0.2203389830508475</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2302,47 +2287,47 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K44">
-        <v>0.1392405063291139</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M44">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N44">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>136</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K45">
-        <v>0.1386138613861386</v>
+        <v>0.375</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2354,21 +2339,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>87</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K46">
-        <v>0.1259842519685039</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L46">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M46">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2380,21 +2365,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>111</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K47">
-        <v>0.1221374045801527</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M47">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2406,21 +2391,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>115</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K48">
-        <v>0.09202453987730061</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2432,21 +2417,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>148</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K49">
-        <v>0.08133971291866028</v>
+        <v>0.1339712918660287</v>
       </c>
       <c r="L49">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M49">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2458,73 +2443,73 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>384</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K50">
-        <v>0.07054871220604703</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L50">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="M50">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="N50">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O50">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>830</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K51">
-        <v>0.07042253521126761</v>
+        <v>0.09202453987730061</v>
       </c>
       <c r="L51">
         <v>15</v>
       </c>
       <c r="M51">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N51">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>198</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K52">
-        <v>0.06971153846153846</v>
+        <v>0.0880503144654088</v>
       </c>
       <c r="L52">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M52">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2536,21 +2521,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>387</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K53">
-        <v>0.06511627906976744</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="L53">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M53">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2562,21 +2547,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K54">
-        <v>0.05652173913043478</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="L54">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M54">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2588,73 +2573,73 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>217</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K55">
-        <v>0.0488599348534202</v>
+        <v>0.0761478163493841</v>
       </c>
       <c r="L55">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="M55">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="N55">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O55">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>292</v>
+        <v>825</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K56">
-        <v>0.04777777777777778</v>
+        <v>0.07441860465116279</v>
       </c>
       <c r="L56">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="M56">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="N56">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>857</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K57">
-        <v>0.0461361014994233</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="L57">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M57">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2666,137 +2651,137 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>827</v>
+        <v>303</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K58">
-        <v>0.04294478527607362</v>
+        <v>0.06986899563318777</v>
       </c>
       <c r="L58">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M58">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N58">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O58">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>312</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K59">
-        <v>0.03750586029067042</v>
+        <v>0.06191950464396285</v>
       </c>
       <c r="L59">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M59">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="N59">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="O59">
-        <v>0.11</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>2053</v>
+        <v>606</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K60">
-        <v>0.03497942386831276</v>
+        <v>0.05979381443298969</v>
       </c>
       <c r="L60">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M60">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K61">
-        <v>0.03389830508474576</v>
+        <v>0.05549389567147614</v>
       </c>
       <c r="L61">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="M61">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="N61">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>627</v>
+        <v>851</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="K62">
-        <v>0.02297734627831715</v>
+        <v>0.04400749063670412</v>
       </c>
       <c r="L62">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="M62">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="N62">
-        <v>0.8100000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="O62">
-        <v>0.1899999999999999</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>3019</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2804,51 +2789,51 @@
         <v>90</v>
       </c>
       <c r="K63">
-        <v>0.02068252326783868</v>
+        <v>0.04157043879907621</v>
       </c>
       <c r="L63">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M63">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N63">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O63">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>947</v>
+        <v>830</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K64">
-        <v>0.0163265306122449</v>
+        <v>0.03491755577109602</v>
       </c>
       <c r="L64">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="M64">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="N64">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="O64">
-        <v>0.24</v>
+        <v>0.11</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>3133</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2856,25 +2841,103 @@
         <v>91</v>
       </c>
       <c r="K65">
-        <v>0.01466781708369284</v>
+        <v>0.0265017667844523</v>
       </c>
       <c r="L65">
+        <v>15</v>
+      </c>
+      <c r="M65">
+        <v>16</v>
+      </c>
+      <c r="N65">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O65">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K66">
+        <v>0.02378490175801448</v>
+      </c>
+      <c r="L66">
+        <v>23</v>
+      </c>
+      <c r="M66">
+        <v>24</v>
+      </c>
+      <c r="N66">
+        <v>0.96</v>
+      </c>
+      <c r="O66">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K67">
+        <v>0.02226403261210411</v>
+      </c>
+      <c r="L67">
+        <v>71</v>
+      </c>
+      <c r="M67">
+        <v>83</v>
+      </c>
+      <c r="N67">
+        <v>0.86</v>
+      </c>
+      <c r="O67">
+        <v>0.14</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K68">
+        <v>0.0146551724137931</v>
+      </c>
+      <c r="L68">
         <v>17</v>
       </c>
-      <c r="M65">
-        <v>19</v>
-      </c>
-      <c r="N65">
-        <v>0.89</v>
-      </c>
-      <c r="O65">
-        <v>0.11</v>
-      </c>
-      <c r="P65" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q65">
-        <v>1142</v>
+      <c r="M68">
+        <v>18</v>
+      </c>
+      <c r="N68">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O68">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>1143</v>
       </c>
     </row>
   </sheetData>
